--- a/Excel/Lab.MiniExcelQuery/Lab.MiniExcelQuery.Test/Import.xlsx
+++ b/Excel/Lab.MiniExcelQuery/Lab.MiniExcelQuery.Test/Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\sample.dotblog\Excel\Lab.MiniExcelQuery\Lab.MiniExcelQuery.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6518AD-30DD-47D8-9B82-FF602644319E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B50A82-EA4A-489F-BC7A-5D50985B0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="480" windowWidth="27030" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>年齡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>電話</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>0987-123-456</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +711,9 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1090,30 +1093,30 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -1122,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8069.4660995370368</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1136,13 +1139,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>28582.466099537036</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1150,13 +1153,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>32204.466099537036</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1164,13 +1167,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>37074.466099537036</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1178,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>34353.466099537036</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1192,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>33732.466099537036</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1206,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>32511.466099537036</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1220,13 +1223,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>36779.466099537036</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1234,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>36882.466099537036</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1248,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>28185.466099537036</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
